--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrz_extracted_properties.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrz_extracted_properties.xlsx
@@ -2102,7 +2102,7 @@
         <v>516.7440195736001</v>
       </c>
       <c r="AB3">
-        <v>0.8751458432125652</v>
+        <v>0.8751458432125653</v>
       </c>
       <c r="AC3">
         <v>0.02697</v>
@@ -2419,8 +2419,14 @@
       <c r="ED3">
         <v>6.929885151399707E-11</v>
       </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
       <c r="EF3">
         <v>5.268475383740666E-11</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
       </c>
       <c r="EH3">
         <v>1.075214559241299E-10</v>
@@ -2617,7 +2623,7 @@
         <v>542.8262287392901</v>
       </c>
       <c r="AB4">
-        <v>0.8702124445649645</v>
+        <v>0.8702124445649647</v>
       </c>
       <c r="AC4">
         <v>-0.04316</v>
@@ -3456,7 +3462,7 @@
         <v>5.050990001969911</v>
       </c>
       <c r="EC5">
-        <v>0.007353015139217101</v>
+        <v>0.007353015135351787</v>
       </c>
       <c r="ED5">
         <v>0.001099723443374741</v>
@@ -3507,7 +3513,7 @@
         <v>4.09544</v>
       </c>
       <c r="ET5">
-        <v>0.2603333333333333</v>
+        <v>0.2603333333333334</v>
       </c>
       <c r="EU5" t="s">
         <v>199</v>
@@ -3980,7 +3986,7 @@
         <v>4.254703279900961</v>
       </c>
       <c r="EC6">
-        <v>7.577060977015831E-06</v>
+        <v>7.573309027799888E-06</v>
       </c>
       <c r="ED6">
         <v>1.140102126384316E-06</v>
@@ -4189,7 +4195,7 @@
         <v>474.8207610302745</v>
       </c>
       <c r="AB7">
-        <v>0.8835090055130196</v>
+        <v>0.8835090055130198</v>
       </c>
       <c r="AC7">
         <v>0.0143</v>
@@ -4438,7 +4444,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="DG7">
-        <v>1.761721605960462</v>
+        <v>1.761721605960461</v>
       </c>
       <c r="DH7">
         <v>4.407096549884062</v>
@@ -4522,7 +4528,7 @@
         <v>5.122830262229761E-06</v>
       </c>
       <c r="EI7">
-        <v>2.215497510409518E-05</v>
+        <v>2.215625792596615E-05</v>
       </c>
       <c r="EJ7">
         <v>3.330007032858031E-06</v>
